--- a/excel/format_siswaMagang.xlsx
+++ b/excel/format_siswaMagang.xlsx
@@ -63,8 +63,8 @@
     <numFmt numFmtId="164" formatCode="yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yyyy;@"/>
     <numFmt numFmtId="166" formatCode="hh\:mm\:ss;@"/>
-    <numFmt numFmtId="169" formatCode="[$-409]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-13809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-409]dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-13809]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -477,7 +477,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
